--- a/server/src/main/java/net/guides/springboot2/crud/templates/Fluturas.xlsx
+++ b/server/src/main/java/net/guides/springboot2/crud/templates/Fluturas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\webapp-spring\server\src\main\java\net\guides\springboot2\crud\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E32735-2D0C-47C4-8829-FF8960682612}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B362D18-8142-4850-B855-815264ED7B78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,6 +683,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9E5165-32A9-4856-ADFA-BCB7081F21F7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
